--- a/rhla_analysis/rhla1_6_normal_result/result.xlsx
+++ b/rhla_analysis/rhla1_6_normal_result/result.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.876897046700438</v>
+        <v>4.876897046700444</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.806117767067178</v>
+        <v>9.806117767067203</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.04441620069134</v>
+        <v>11.04441620069132</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.44989989106902</v>
+        <v>10.449899891069</v>
       </c>
     </row>
     <row r="6">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.738103532917346</v>
+        <v>7.738103532917367</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.53477078553204</v>
+        <v>16.53477078553199</v>
       </c>
     </row>
     <row r="9">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.7932312330156</v>
+        <v>15.79323123301561</v>
       </c>
     </row>
     <row r="11">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.371103026109568</v>
+        <v>5.371103026109536</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.90521771072324</v>
+        <v>13.90521771072325</v>
       </c>
     </row>
     <row r="14">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>14.12653665519407</v>
+        <v>14.12653665519406</v>
       </c>
     </row>
     <row r="16">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10.25797126676376</v>
+        <v>10.25797126676374</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>14.89587276207876</v>
+        <v>14.89587276207874</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.57481162255473</v>
+        <v>20.57481162255471</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.91992194086372</v>
+        <v>19.91992194086369</v>
       </c>
     </row>
     <row r="21">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.11086841925654</v>
+        <v>10.11086841925649</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>26.60843285201824</v>
+        <v>26.60843285201811</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>26.9578459084963</v>
+        <v>26.95784590849625</v>
       </c>
     </row>
     <row r="25">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>11.06708756318476</v>
+        <v>11.06708756318484</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>33.78091997016696</v>
+        <v>33.78091997016691</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>33.74675508387671</v>
+        <v>33.74675508387675</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>32.91615309977337</v>
+        <v>32.91615309977338</v>
       </c>
     </row>
     <row r="31">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8.884926263196201</v>
+        <v>8.884926263196265</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>26.6081294893415</v>
+        <v>26.60812948934159</v>
       </c>
     </row>
     <row r="34">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.33968972031589</v>
+        <v>31.33968972031597</v>
       </c>
     </row>
     <row r="35">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>30.59980961346058</v>
+        <v>30.59980961346065</v>
       </c>
     </row>
     <row r="36">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.83297776798745</v>
+        <v>34.83297776798762</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>41.03464635756988</v>
+        <v>41.03464635756993</v>
       </c>
     </row>
     <row r="39">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>54.81769074306616</v>
+        <v>54.81769074306625</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>50.41842053737695</v>
+        <v>50.41842053737698</v>
       </c>
     </row>
     <row r="41">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>39.6196434741121</v>
+        <v>39.61964347411207</v>
       </c>
     </row>
     <row r="43">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>94.55759763337045</v>
+        <v>94.55759763337103</v>
       </c>
     </row>
     <row r="44">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.80835699247484</v>
+        <v>96.80835699247493</v>
       </c>
     </row>
     <row r="45">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>91.04273307919685</v>
+        <v>91.04273307919698</v>
       </c>
     </row>
     <row r="46">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>15.51024915336338</v>
+        <v>15.51024915336328</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>67.9770289702019</v>
+        <v>67.97702897020186</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>70.28316348309649</v>
+        <v>70.28316348309654</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>68.81487606204598</v>
+        <v>68.81487606204604</v>
       </c>
     </row>
     <row r="51">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>65.68424858923197</v>
+        <v>65.68424858923171</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>120.4516625147538</v>
+        <v>120.4516625147539</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>130.0867092888797</v>
+        <v>130.0867092888796</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>123.4021586414732</v>
+        <v>123.4021586414731</v>
       </c>
     </row>
     <row r="56">
